--- a/data/trans_orig/P19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C1FD41-36BE-4AC8-83BC-11C9FB7B13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{268CCE42-C888-4A65-8648-457210DA5391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D619F0A-E4F9-45A7-BBD5-51D96650C54E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FB3164C-A17F-4C3E-B039-AB6392F436F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="488">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1345 +77,1363 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>91,48%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>90,92%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>32,42%</t>
@@ -1424,19 +1442,19 @@
     <t>27,32%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>71,79%</t>
@@ -1445,70 +1463,46 @@
     <t>67,58%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>81,29%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>9,24%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>90,76%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327AE202-D03F-4B4B-8DE9-CBDBC75C655C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B4F3D-052F-4CBB-AAB1-89AE6FD4E4B0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2700,7 +2694,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2709,13 @@
         <v>201189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -2730,13 +2724,13 @@
         <v>241810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>439</v>
@@ -2745,13 +2739,13 @@
         <v>442999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2801,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2813,13 @@
         <v>145243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -2834,13 +2828,13 @@
         <v>229940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -2849,13 +2843,13 @@
         <v>375182</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2864,13 @@
         <v>194286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -2885,13 +2879,13 @@
         <v>225206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>423</v>
@@ -2900,13 +2894,13 @@
         <v>419493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2968,13 @@
         <v>333652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>433</v>
@@ -2989,13 +2983,13 @@
         <v>442221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>768</v>
@@ -3004,13 +2998,13 @@
         <v>775873</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3019,13 @@
         <v>2121090</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2246</v>
@@ -3040,7 +3034,7 @@
         <v>2298716</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>137</v>
@@ -3139,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474B4711-D5C4-4059-AF45-A40BB3C6D221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F4B07-54EF-4EED-B930-EBE79ED28F94}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,10 +3290,10 @@
         <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,28 +3308,28 @@
         <v>367995</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
       </c>
       <c r="I5" s="7">
-        <v>356053</v>
+        <v>356054</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>709</v>
@@ -3344,13 +3338,13 @@
         <v>724048</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3371,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3418,13 +3412,13 @@
         <v>21344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3433,13 +3427,13 @@
         <v>34345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3448,13 +3442,13 @@
         <v>55689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3463,13 @@
         <v>575923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3484,13 +3478,13 @@
         <v>524465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3499,13 +3493,13 @@
         <v>1100387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3567,13 @@
         <v>45513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3588,13 +3582,13 @@
         <v>47973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3603,13 +3597,13 @@
         <v>93486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3618,13 @@
         <v>541138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>577</v>
@@ -3639,13 +3633,13 @@
         <v>611481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -3654,13 +3648,13 @@
         <v>1152618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3722,13 @@
         <v>76483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3743,13 +3737,13 @@
         <v>87086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -3758,13 +3752,13 @@
         <v>163569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,16 +3770,16 @@
         <v>421</v>
       </c>
       <c r="D14" s="7">
-        <v>466357</v>
+        <v>466356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>414</v>
@@ -3794,13 +3788,13 @@
         <v>476265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -3809,13 +3803,13 @@
         <v>942621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3821,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3883,13 +3877,13 @@
         <v>94671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3898,13 +3892,13 @@
         <v>94281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3913,13 +3907,13 @@
         <v>188952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3928,13 @@
         <v>266639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -3949,13 +3943,13 @@
         <v>296434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>513</v>
@@ -3964,13 +3958,13 @@
         <v>563073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4020,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4032,13 @@
         <v>187955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -4053,13 +4047,13 @@
         <v>295076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>442</v>
@@ -4068,13 +4062,13 @@
         <v>483031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4083,13 @@
         <v>259461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4104,13 +4098,13 @@
         <v>307926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -4119,13 +4113,13 @@
         <v>567387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4187,13 @@
         <v>437146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>527</v>
@@ -4208,13 +4202,13 @@
         <v>573698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>921</v>
@@ -4223,13 +4217,13 @@
         <v>1010844</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,28 +4238,28 @@
         <v>2477512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2388</v>
       </c>
       <c r="I23" s="7">
-        <v>2572624</v>
+        <v>2572623</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>4730</v>
@@ -4274,13 +4268,13 @@
         <v>5050136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4301,7 @@
         <v>2915</v>
       </c>
       <c r="I24" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4358,7 +4352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E741A948-F79B-4F0E-9D51-574491319E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B911A9F-9841-4743-9039-51077D251B07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +4476,13 @@
         <v>13498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4500,10 +4494,10 @@
         <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4512,13 +4506,13 @@
         <v>23883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4527,13 @@
         <v>339342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
@@ -4548,13 +4542,13 @@
         <v>341545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>666</v>
@@ -4563,13 +4557,13 @@
         <v>680887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4631,13 @@
         <v>21474</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4655,10 +4649,10 @@
         <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4667,13 +4661,13 @@
         <v>38785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4682,13 @@
         <v>471604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4703,13 +4697,13 @@
         <v>479410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -4718,13 +4712,13 @@
         <v>951012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4786,13 @@
         <v>23216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4807,13 +4801,13 @@
         <v>37998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4822,13 +4816,13 @@
         <v>61214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4837,13 @@
         <v>534644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>537</v>
@@ -4858,13 +4852,13 @@
         <v>535082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>1046</v>
@@ -4873,13 +4867,13 @@
         <v>1069726</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4941,13 @@
         <v>50749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4962,13 +4956,13 @@
         <v>51505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4977,13 +4971,13 @@
         <v>102254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4992,13 @@
         <v>461623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -5013,13 +5007,13 @@
         <v>493379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -5028,13 +5022,13 @@
         <v>955002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5096,13 @@
         <v>64254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -5117,13 +5111,13 @@
         <v>68937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5132,13 +5126,13 @@
         <v>133191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5147,13 @@
         <v>306748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -5168,13 +5162,13 @@
         <v>326936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
@@ -5183,13 +5177,13 @@
         <v>633684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5239,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5257,13 +5251,13 @@
         <v>110534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5272,13 +5266,13 @@
         <v>147454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -5287,13 +5281,13 @@
         <v>257988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5302,13 @@
         <v>266648</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -5323,13 +5317,13 @@
         <v>357373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>593</v>
@@ -5338,13 +5332,13 @@
         <v>624021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5406,13 @@
         <v>283725</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>298</v>
@@ -5427,13 +5421,13 @@
         <v>333590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -5442,13 +5436,13 @@
         <v>617315</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,16 +5454,16 @@
         <v>2257</v>
       </c>
       <c r="D23" s="7">
-        <v>2380609</v>
+        <v>2380608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>2429</v>
@@ -5478,28 +5472,28 @@
         <v>2533725</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>4686</v>
       </c>
       <c r="N23" s="7">
-        <v>4914334</v>
+        <v>4914333</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5505,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5541,7 +5535,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5577,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1946A7A-54F4-46D6-9DBF-C908A35D5F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1635B0-F5C8-4FF2-A2B3-E9D97D192AAF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5701,13 +5695,13 @@
         <v>4894</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5716,13 +5710,13 @@
         <v>4380</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5731,13 +5725,13 @@
         <v>9273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5746,13 @@
         <v>352864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5767,13 +5761,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5782,13 +5776,13 @@
         <v>692981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5850,13 @@
         <v>16808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5871,13 +5865,13 @@
         <v>19485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>399</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5886,13 +5880,13 @@
         <v>36293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5901,13 @@
         <v>390392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5922,13 +5916,13 @@
         <v>466390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -5940,10 +5934,10 @@
         <v>411</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6005,13 @@
         <v>21313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6026,13 +6020,13 @@
         <v>25744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -6041,13 +6035,13 @@
         <v>47057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6056,13 @@
         <v>523042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>420</v>
       </c>
       <c r="H11" s="7">
         <v>784</v>
@@ -6077,13 +6071,13 @@
         <v>546452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -6092,10 +6086,10 @@
         <v>1069495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>425</v>
@@ -6166,13 +6160,13 @@
         <v>50738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -6181,13 +6175,13 @@
         <v>49749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -6196,13 +6190,13 @@
         <v>100487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6211,13 @@
         <v>651856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>1037</v>
@@ -6232,13 +6226,13 @@
         <v>684058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
@@ -6247,13 +6241,13 @@
         <v>1335913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6315,13 @@
         <v>67494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -6336,13 +6330,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -6351,13 +6345,13 @@
         <v>122751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>125</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6366,13 @@
         <v>517276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6387,28 +6381,28 @@
         <v>527086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
       </c>
       <c r="N17" s="7">
-        <v>1044362</v>
+        <v>1044363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +6444,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6464,7 +6458,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6470,13 @@
         <v>176978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>531</v>
@@ -6491,13 +6485,13 @@
         <v>281544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6506,13 +6500,13 @@
         <v>458522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6521,13 @@
         <v>503484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>1126</v>
@@ -6542,13 +6536,13 @@
         <v>716586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>1861</v>
@@ -6557,13 +6551,13 @@
         <v>1220070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6625,13 @@
         <v>338225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>772</v>
@@ -6646,13 +6640,13 @@
         <v>436160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
@@ -6661,13 +6655,13 @@
         <v>774384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6676,13 @@
         <v>2938913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>4445</v>
@@ -6697,13 +6691,13 @@
         <v>3280688</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>7264</v>
@@ -6712,13 +6706,13 @@
         <v>6219602</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268CCE42-C888-4A65-8648-457210DA5391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06345490-5524-4C96-827D-2EE3986D5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FB3164C-A17F-4C3E-B039-AB6392F436F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22DA44B9-2160-4CCE-ACD4-8E6C433BBB3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1369 +140,1393 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>94,59%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B4F3D-052F-4CBB-AAB1-89AE6FD4E4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CB63F6-EE70-47E8-9942-21051ECA8A0C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2983,13 +3007,13 @@
         <v>442221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>768</v>
@@ -2998,13 +3022,13 @@
         <v>775873</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3043,13 @@
         <v>2121090</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2246</v>
@@ -3034,13 +3058,13 @@
         <v>2298716</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4318</v>
@@ -3049,13 +3073,13 @@
         <v>4419806</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3135,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F4B07-54EF-4EED-B930-EBE79ED28F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDC7A3D-6203-4004-B4AB-E0EE14ADA9DC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3150,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3257,13 +3281,13 @@
         <v>11181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3272,13 +3296,13 @@
         <v>14937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3287,13 +3311,13 @@
         <v>26118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,28 +3332,28 @@
         <v>367995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
       </c>
       <c r="I5" s="7">
-        <v>356054</v>
+        <v>356053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>709</v>
@@ -3338,13 +3362,13 @@
         <v>724048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3395,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3412,13 +3436,13 @@
         <v>21344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3427,13 +3451,13 @@
         <v>34345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3442,13 +3466,13 @@
         <v>55689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3487,13 @@
         <v>575923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3478,13 +3502,13 @@
         <v>524465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3493,13 +3517,13 @@
         <v>1100387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3591,13 @@
         <v>45513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3582,13 +3606,13 @@
         <v>47973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3597,13 +3621,13 @@
         <v>93486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3642,13 @@
         <v>541138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>577</v>
@@ -3633,13 +3657,13 @@
         <v>611481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -3648,13 +3672,13 @@
         <v>1152618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3746,13 @@
         <v>76483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3737,13 +3761,13 @@
         <v>87086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -3752,13 +3776,13 @@
         <v>163569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,16 +3794,16 @@
         <v>421</v>
       </c>
       <c r="D14" s="7">
-        <v>466356</v>
+        <v>466357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>414</v>
@@ -3788,13 +3812,13 @@
         <v>476265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -3803,13 +3827,13 @@
         <v>942621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3845,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3877,13 +3901,13 @@
         <v>94671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3892,13 +3916,13 @@
         <v>94281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3907,13 +3931,13 @@
         <v>188952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3952,13 @@
         <v>266639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -3943,13 +3967,13 @@
         <v>296434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>513</v>
@@ -3958,13 +3982,13 @@
         <v>563073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4056,13 @@
         <v>187955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -4047,13 +4071,13 @@
         <v>295076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>442</v>
@@ -4062,13 +4086,13 @@
         <v>483031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4107,13 @@
         <v>259461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4098,13 +4122,13 @@
         <v>307926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -4113,13 +4137,13 @@
         <v>567387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4211,13 @@
         <v>437146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>527</v>
@@ -4202,13 +4226,13 @@
         <v>573698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>921</v>
@@ -4217,13 +4241,13 @@
         <v>1010844</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4262,13 @@
         <v>2477512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2388</v>
@@ -4253,13 +4277,13 @@
         <v>2572623</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4730</v>
@@ -4268,13 +4292,13 @@
         <v>5050136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B911A9F-9841-4743-9039-51077D251B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31688EE2-88E8-44CB-9549-CA4602A45A2F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4369,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,13 +4500,13 @@
         <v>13498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4491,13 +4515,13 @@
         <v>10385</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4506,13 +4530,13 @@
         <v>23883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4551,13 @@
         <v>339342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
@@ -4542,13 +4566,13 @@
         <v>341545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>666</v>
@@ -4557,13 +4581,13 @@
         <v>680887</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4655,13 @@
         <v>21474</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4646,13 +4670,13 @@
         <v>17310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4661,13 +4685,13 @@
         <v>38785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4706,13 @@
         <v>471604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4697,13 +4721,13 @@
         <v>479410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -4712,13 +4736,13 @@
         <v>951012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4810,13 @@
         <v>23216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4801,13 +4825,13 @@
         <v>37998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4816,13 +4840,13 @@
         <v>61214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4861,13 @@
         <v>534644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>537</v>
@@ -4852,13 +4876,13 @@
         <v>535082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1046</v>
@@ -4867,13 +4891,13 @@
         <v>1069726</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4965,13 @@
         <v>50749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4956,13 +4980,13 @@
         <v>51505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4971,13 +4995,13 @@
         <v>102254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5016,13 @@
         <v>461623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -5007,13 +5031,13 @@
         <v>493379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -5022,13 +5046,13 @@
         <v>955002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5120,13 @@
         <v>64254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -5111,13 +5135,13 @@
         <v>68937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5126,13 +5150,13 @@
         <v>133191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5171,13 @@
         <v>306748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -5162,13 +5186,13 @@
         <v>326936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
@@ -5177,13 +5201,13 @@
         <v>633684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5275,13 @@
         <v>110534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5266,13 +5290,13 @@
         <v>147454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -5281,13 +5305,13 @@
         <v>257988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5326,13 @@
         <v>266648</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -5317,13 +5341,13 @@
         <v>357373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>593</v>
@@ -5332,13 +5356,13 @@
         <v>624021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5430,13 @@
         <v>283725</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>298</v>
@@ -5421,13 +5445,13 @@
         <v>333590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -5436,13 +5460,13 @@
         <v>617315</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,16 +5478,16 @@
         <v>2257</v>
       </c>
       <c r="D23" s="7">
-        <v>2380608</v>
+        <v>2380609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>2429</v>
@@ -5472,13 +5496,13 @@
         <v>2533725</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>4686</v>
@@ -5487,13 +5511,13 @@
         <v>4914333</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5529,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5549,7 +5573,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5571,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1635B0-F5C8-4FF2-A2B3-E9D97D192AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441F4503-6827-4A6A-97C5-CD0F5681A682}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5588,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5695,13 +5719,13 @@
         <v>4894</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5710,13 +5734,13 @@
         <v>4380</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5725,13 +5749,13 @@
         <v>9273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5770,13 @@
         <v>352864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5761,13 +5785,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5776,13 +5800,13 @@
         <v>692981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5874,13 @@
         <v>16808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5865,13 +5889,13 @@
         <v>19485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5880,13 +5904,13 @@
         <v>36293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5925,13 @@
         <v>390392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5916,13 +5940,13 @@
         <v>466390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -5931,13 +5955,13 @@
         <v>856782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6029,13 @@
         <v>21313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6020,13 +6044,13 @@
         <v>25744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -6035,13 +6059,13 @@
         <v>47057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6080,13 @@
         <v>523042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>784</v>
@@ -6071,13 +6095,13 @@
         <v>546452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -6086,13 +6110,13 @@
         <v>1069495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6184,13 @@
         <v>50738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -6175,13 +6199,13 @@
         <v>49749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -6190,13 +6214,13 @@
         <v>100487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6235,13 @@
         <v>651856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>1037</v>
@@ -6226,13 +6250,13 @@
         <v>684058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
@@ -6241,13 +6265,13 @@
         <v>1335913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6339,13 @@
         <v>67494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -6330,13 +6354,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -6345,13 +6369,13 @@
         <v>122751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6390,13 @@
         <v>517276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6381,13 +6405,13 @@
         <v>527086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
@@ -6396,13 +6420,13 @@
         <v>1044363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6494,13 @@
         <v>176978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>531</v>
@@ -6485,13 +6509,13 @@
         <v>281544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6500,13 +6524,13 @@
         <v>458522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6545,13 @@
         <v>503484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>1126</v>
@@ -6536,13 +6560,13 @@
         <v>716586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1861</v>
@@ -6551,13 +6575,13 @@
         <v>1220070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6649,13 @@
         <v>338225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>772</v>
@@ -6640,13 +6664,13 @@
         <v>436160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
@@ -6655,13 +6679,13 @@
         <v>774384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6700,13 @@
         <v>2938913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>4445</v>
@@ -6691,13 +6715,13 @@
         <v>3280688</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
         <v>7264</v>
@@ -6706,13 +6730,13 @@
         <v>6219602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6792,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06345490-5524-4C96-827D-2EE3986D5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD82DB5D-9B9E-4277-AC58-8A2D8D2D72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22DA44B9-2160-4CCE-ACD4-8E6C433BBB3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B931A25-1652-4651-B7F5-5E34E62CAB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1387 +71,1351 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>18,71%</t>
+    <t>19,74%</t>
   </si>
   <si>
     <t>32,42%</t>
@@ -1460,19 +1424,19 @@
     <t>27,32%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>71,79%</t>
@@ -1481,52 +1445,70 @@
     <t>67,58%</t>
   </si>
   <si>
-    <t>81,29%</t>
+    <t>80,26%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>12,67%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>87,33%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CB63F6-EE70-47E8-9942-21051ECA8A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A3C86-DDF8-4FB7-9C8A-137F6C9668C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2718,7 +2700,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2715,13 @@
         <v>201189</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -2748,13 +2730,13 @@
         <v>241810</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>439</v>
@@ -2763,13 +2745,13 @@
         <v>442999</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2807,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2837,13 +2819,13 @@
         <v>145243</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -2852,13 +2834,13 @@
         <v>229940</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -2867,13 +2849,13 @@
         <v>375182</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2870,13 @@
         <v>194286</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -2903,13 +2885,13 @@
         <v>225206</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>423</v>
@@ -2918,13 +2900,13 @@
         <v>419493</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2974,13 @@
         <v>333652</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>433</v>
@@ -3007,13 +2989,13 @@
         <v>442221</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>768</v>
@@ -3022,13 +3004,13 @@
         <v>775873</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3025,13 @@
         <v>2121090</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2246</v>
@@ -3058,13 +3040,13 @@
         <v>2298716</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4318</v>
@@ -3073,13 +3055,13 @@
         <v>4419806</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3117,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDC7A3D-6203-4004-B4AB-E0EE14ADA9DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CACAC7-BDE0-46AF-AA45-8BFC95CCF31B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3174,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,13 +3263,13 @@
         <v>11181</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3296,13 +3278,13 @@
         <v>14937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3311,13 +3293,13 @@
         <v>26118</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3314,13 @@
         <v>367995</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
@@ -3347,7 +3329,7 @@
         <v>356053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>157</v>
@@ -3749,10 +3731,10 @@
         <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3761,13 +3743,13 @@
         <v>87086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -3776,13 +3758,13 @@
         <v>163569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3779,13 @@
         <v>466357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>414</v>
@@ -3812,13 +3794,13 @@
         <v>476265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -3827,13 +3809,13 @@
         <v>942621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3883,13 @@
         <v>94671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3916,13 +3898,13 @@
         <v>94281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3931,13 +3913,13 @@
         <v>188952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3934,13 @@
         <v>266639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -3967,13 +3949,13 @@
         <v>296434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>513</v>
@@ -3982,13 +3964,13 @@
         <v>563073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,7 +4026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4056,13 +4038,13 @@
         <v>187955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -4071,13 +4053,13 @@
         <v>295076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>442</v>
@@ -4086,13 +4068,13 @@
         <v>483031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4089,13 @@
         <v>259461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4122,13 +4104,13 @@
         <v>307926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -4137,13 +4119,13 @@
         <v>567387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4193,13 @@
         <v>437146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>527</v>
@@ -4226,13 +4208,13 @@
         <v>573698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>921</v>
@@ -4241,13 +4223,13 @@
         <v>1010844</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,28 +4244,28 @@
         <v>2477512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2388</v>
       </c>
       <c r="I23" s="7">
-        <v>2572623</v>
+        <v>2572624</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>4730</v>
@@ -4292,13 +4274,13 @@
         <v>5050136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4307,7 @@
         <v>2915</v>
       </c>
       <c r="I24" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4354,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31688EE2-88E8-44CB-9549-CA4602A45A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0B89C1-203F-48A9-A7DD-F26CFD03AF22}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,13 +4482,13 @@
         <v>13498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4515,13 +4497,13 @@
         <v>10385</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4530,13 +4512,13 @@
         <v>23883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>339342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
@@ -4566,13 +4548,13 @@
         <v>341545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>666</v>
@@ -4584,10 +4566,10 @@
         <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,7 +4652,7 @@
         <v>17310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>286</v>
@@ -4691,7 +4673,7 @@
         <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4688,13 @@
         <v>471604</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4724,10 +4706,10 @@
         <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -4736,13 +4718,13 @@
         <v>951012</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4792,13 @@
         <v>23216</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4825,13 +4807,13 @@
         <v>37998</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4840,13 +4822,13 @@
         <v>61214</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4843,13 @@
         <v>534644</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>537</v>
@@ -4876,13 +4858,13 @@
         <v>535082</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1046</v>
@@ -4891,13 +4873,13 @@
         <v>1069726</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4947,13 @@
         <v>50749</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4980,13 +4962,13 @@
         <v>51505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4995,13 +4977,13 @@
         <v>102254</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4998,13 @@
         <v>461623</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -5031,13 +5013,13 @@
         <v>493379</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -5046,13 +5028,13 @@
         <v>955002</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5102,13 @@
         <v>64254</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -5135,13 +5117,13 @@
         <v>68937</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5150,13 +5132,13 @@
         <v>133191</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5153,13 @@
         <v>306748</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -5186,13 +5168,13 @@
         <v>326936</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
@@ -5201,13 +5183,13 @@
         <v>633684</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5245,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5275,13 +5257,13 @@
         <v>110534</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5290,13 +5272,13 @@
         <v>147454</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -5305,13 +5287,13 @@
         <v>257988</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5308,13 @@
         <v>266648</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -5341,13 +5323,13 @@
         <v>357373</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>593</v>
@@ -5356,13 +5338,13 @@
         <v>624021</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5412,13 @@
         <v>283725</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>298</v>
@@ -5445,13 +5427,13 @@
         <v>333590</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -5460,13 +5442,13 @@
         <v>617315</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5463,13 @@
         <v>2380609</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>2429</v>
@@ -5496,28 +5478,28 @@
         <v>2533725</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>4686</v>
       </c>
       <c r="N23" s="7">
-        <v>4914333</v>
+        <v>4914334</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5541,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5573,7 +5555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5595,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441F4503-6827-4A6A-97C5-CD0F5681A682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA208A6-948B-4D5C-9F4E-2AAAFA137CA0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5719,13 +5701,13 @@
         <v>4894</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5734,13 +5716,13 @@
         <v>4380</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5749,13 +5731,13 @@
         <v>9273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5752,13 @@
         <v>352864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5785,13 +5767,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5800,13 +5782,13 @@
         <v>692981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5856,13 @@
         <v>16808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5889,13 +5871,13 @@
         <v>19485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5904,13 +5886,13 @@
         <v>36293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5907,13 @@
         <v>390392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5940,13 +5922,13 @@
         <v>466390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -5955,13 +5937,13 @@
         <v>856782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,10 +6014,10 @@
         <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>422</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6044,13 +6026,13 @@
         <v>25744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -6059,13 +6041,13 @@
         <v>47057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6062,13 @@
         <v>523042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>784</v>
@@ -6095,13 +6077,13 @@
         <v>546452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -6110,13 +6092,13 @@
         <v>1069495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6166,13 @@
         <v>50738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -6199,13 +6181,13 @@
         <v>49749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -6214,13 +6196,13 @@
         <v>100487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6217,13 @@
         <v>651856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>1037</v>
@@ -6250,13 +6232,13 @@
         <v>684058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
@@ -6265,13 +6247,13 @@
         <v>1335913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6321,13 @@
         <v>67494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -6354,13 +6336,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -6369,13 +6351,13 @@
         <v>122751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6372,13 @@
         <v>517276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6405,28 +6387,28 @@
         <v>527086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
       </c>
       <c r="N17" s="7">
-        <v>1044363</v>
+        <v>1044362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6450,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6482,7 +6464,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6476,13 @@
         <v>176978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>531</v>
@@ -6509,13 +6491,13 @@
         <v>281544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6524,13 +6506,13 @@
         <v>458522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6527,13 @@
         <v>503484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>1126</v>
@@ -6560,13 +6542,13 @@
         <v>716586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>1861</v>
@@ -6575,13 +6557,13 @@
         <v>1220070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6631,13 @@
         <v>338225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>772</v>
@@ -6664,13 +6646,13 @@
         <v>436160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
@@ -6679,13 +6661,13 @@
         <v>774384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6682,13 @@
         <v>2938913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>4445</v>
@@ -6715,13 +6697,13 @@
         <v>3280688</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>7264</v>
@@ -6730,13 +6712,13 @@
         <v>6219602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6774,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD82DB5D-9B9E-4277-AC58-8A2D8D2D72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A2977A-BA77-4FD2-9DA1-68767BD4B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B931A25-1652-4651-B7F5-5E34E62CAB6D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6B5AB0DB-A78A-426A-96AF-183FD4C47FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="577">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,33%</t>
@@ -191,7 +191,7 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,71%</t>
@@ -248,7 +248,7 @@
     <t>93,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>13,07%</t>
@@ -305,7 +305,7 @@
     <t>89,36%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>26,13%</t>
@@ -356,445 +356,550 @@
     <t>78,56%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>15,0%</t>
@@ -1094,58 +1199,112 @@
     <t>85,24%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>10,65%</t>
@@ -1205,310 +1364,412 @@
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A3C86-DDF8-4FB7-9C8A-137F6C9668C9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EDFEE5-2122-4DF2-8556-C69C91207F43}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2122,7 +2383,7 @@
         <v>736</v>
       </c>
       <c r="N5" s="7">
-        <v>716120</v>
+        <v>716119</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2173,7 +2434,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2813,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7">
-        <v>145243</v>
+        <v>82724</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2828,10 +3089,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>229940</v>
+        <v>103069</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2843,10 +3104,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="N19" s="7">
-        <v>375182</v>
+        <v>185793</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2864,10 +3125,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>194286</v>
+        <v>130041</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2879,10 +3140,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="I20" s="7">
-        <v>225206</v>
+        <v>143869</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2894,10 +3155,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>423</v>
+        <v>289</v>
       </c>
       <c r="N20" s="7">
-        <v>419493</v>
+        <v>273910</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2915,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2930,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2945,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2962,55 +3223,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>333652</v>
+        <v>62519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="I22" s="7">
-        <v>442221</v>
+        <v>126870</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>768</v>
+        <v>178</v>
       </c>
       <c r="N22" s="7">
-        <v>775873</v>
+        <v>189389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,49 +3280,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2072</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7">
-        <v>2121090</v>
+        <v>64245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="7">
+        <v>70</v>
+      </c>
+      <c r="I23" s="7">
+        <v>81338</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="7">
         <v>134</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2246</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2298716</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="7">
-        <v>4318</v>
-      </c>
       <c r="N23" s="7">
-        <v>4419806</v>
+        <v>145583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,63 +3331,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>335</v>
+      </c>
+      <c r="D25" s="7">
+        <v>333652</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>433</v>
+      </c>
+      <c r="I25" s="7">
+        <v>442221</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>768</v>
+      </c>
+      <c r="N25" s="7">
+        <v>775873</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2072</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2121090</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2246</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2298716</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4318</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4419806</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5195679</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3139,8 +3556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CACAC7-BDE0-46AF-AA45-8BFC95CCF31B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFA5E16-EBE2-40E0-A2D8-8E6FA7397DBB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3156,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,13 +3680,13 @@
         <v>11181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3278,13 +3695,13 @@
         <v>14937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3293,13 +3710,13 @@
         <v>26118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,28 +3731,28 @@
         <v>367995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
       </c>
       <c r="I5" s="7">
-        <v>356053</v>
+        <v>356054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>709</v>
@@ -3344,13 +3761,13 @@
         <v>724048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3794,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3418,13 +3835,13 @@
         <v>21344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3433,13 +3850,13 @@
         <v>34345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3448,13 +3865,13 @@
         <v>55689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3886,13 @@
         <v>575923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3484,13 +3901,13 @@
         <v>524465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3499,13 +3916,13 @@
         <v>1100387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3990,13 @@
         <v>45513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3588,13 +4005,13 @@
         <v>47973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3603,13 +4020,13 @@
         <v>93486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +4041,13 @@
         <v>541138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>577</v>
@@ -3639,13 +4056,13 @@
         <v>611481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -3654,13 +4071,13 @@
         <v>1152618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +4145,13 @@
         <v>76483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3743,13 +4160,13 @@
         <v>87086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -3758,13 +4175,13 @@
         <v>163569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,16 +4193,16 @@
         <v>421</v>
       </c>
       <c r="D14" s="7">
-        <v>466357</v>
+        <v>466356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>414</v>
@@ -3794,13 +4211,13 @@
         <v>476265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -3809,13 +4226,13 @@
         <v>942621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +4244,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3883,13 +4300,13 @@
         <v>94671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3898,13 +4315,13 @@
         <v>94281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3913,13 +4330,13 @@
         <v>188952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +4351,13 @@
         <v>266639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -3949,13 +4366,13 @@
         <v>296434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>513</v>
@@ -3964,13 +4381,13 @@
         <v>563073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4449,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>187955</v>
+        <v>105454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>295076</v>
+        <v>127569</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="N19" s="7">
-        <v>483031</v>
+        <v>233023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,49 +4500,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7">
-        <v>259461</v>
+        <v>157036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="I20" s="7">
-        <v>307926</v>
+        <v>173020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>526</v>
+        <v>315</v>
       </c>
       <c r="N20" s="7">
-        <v>567387</v>
+        <v>330056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4149,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603002</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4164,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>1050418</v>
+        <v>563079</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4181,55 +4598,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>437146</v>
+        <v>82501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="I22" s="7">
-        <v>573698</v>
+        <v>167507</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>921</v>
+        <v>227</v>
       </c>
       <c r="N22" s="7">
-        <v>1010844</v>
+        <v>250008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,49 +4655,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2342</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7">
-        <v>2477512</v>
+        <v>102425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
-        <v>2388</v>
+        <v>121</v>
       </c>
       <c r="I23" s="7">
-        <v>2572624</v>
+        <v>134906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>4730</v>
+        <v>211</v>
       </c>
       <c r="N23" s="7">
-        <v>5050136</v>
+        <v>237331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,63 +4706,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>394</v>
+      </c>
+      <c r="D25" s="7">
+        <v>437147</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>527</v>
+      </c>
+      <c r="I25" s="7">
+        <v>573698</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>921</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1010844</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2342</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2477512</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2572623</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4730</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5050136</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2915</v>
       </c>
-      <c r="I24" s="7">
-        <v>3146322</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3146321</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5651</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6060980</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4358,8 +4931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0B89C1-203F-48A9-A7DD-F26CFD03AF22}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3056E-10ED-480D-A1F3-F226C262D41E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4375,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +5055,13 @@
         <v>13498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4497,13 +5070,13 @@
         <v>10385</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -4512,13 +5085,13 @@
         <v>23883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +5106,13 @@
         <v>339342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>348</v>
@@ -4548,13 +5121,13 @@
         <v>341545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>666</v>
@@ -4563,13 +5136,13 @@
         <v>680887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +5210,13 @@
         <v>21474</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4652,13 +5225,13 @@
         <v>17310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4667,13 +5240,13 @@
         <v>38785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +5261,13 @@
         <v>471604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4703,13 +5276,13 @@
         <v>479410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -4718,13 +5291,13 @@
         <v>951012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +5365,13 @@
         <v>23216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4807,13 +5380,13 @@
         <v>37998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4822,13 +5395,13 @@
         <v>61214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +5416,13 @@
         <v>534644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>537</v>
@@ -4858,13 +5431,13 @@
         <v>535082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>1046</v>
@@ -4873,13 +5446,13 @@
         <v>1069726</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +5520,13 @@
         <v>50749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4962,13 +5535,13 @@
         <v>51505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -4977,13 +5550,13 @@
         <v>102254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5571,13 @@
         <v>461623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -5013,13 +5586,13 @@
         <v>493379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -5028,13 +5601,13 @@
         <v>955002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5675,13 @@
         <v>64254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -5117,13 +5690,13 @@
         <v>68937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5132,13 +5705,13 @@
         <v>133191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5726,13 @@
         <v>306748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -5168,13 +5741,13 @@
         <v>326936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
@@ -5183,13 +5756,13 @@
         <v>633684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,49 +5824,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>110534</v>
+        <v>58326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>147454</v>
+        <v>76410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>257988</v>
+        <v>134736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,49 +5875,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="D20" s="7">
-        <v>266648</v>
+        <v>171799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="7">
+        <v>190</v>
+      </c>
+      <c r="I20" s="7">
+        <v>200538</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M20" s="7">
         <v>362</v>
       </c>
-      <c r="H20" s="7">
-        <v>308</v>
-      </c>
-      <c r="I20" s="7">
-        <v>357373</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M20" s="7">
-        <v>593</v>
-      </c>
       <c r="N20" s="7">
-        <v>624021</v>
+        <v>372338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5368,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5383,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5400,55 +5973,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>283725</v>
+        <v>52208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>333590</v>
+        <v>71044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
-        <v>571</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>617315</v>
+        <v>123252</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,49 +6030,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2257</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7">
-        <v>2380609</v>
+        <v>94849</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
-        <v>2429</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>2533725</v>
+        <v>156835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
-        <v>4686</v>
+        <v>231</v>
       </c>
       <c r="N23" s="7">
-        <v>4914334</v>
+        <v>251684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,63 +6081,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>273</v>
+      </c>
+      <c r="D25" s="7">
+        <v>283725</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="7">
+        <v>298</v>
+      </c>
+      <c r="I25" s="7">
+        <v>333590</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M25" s="7">
+        <v>571</v>
+      </c>
+      <c r="N25" s="7">
+        <v>617315</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2257</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2380608</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2429</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2533725</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4686</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4914333</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5577,8 +6306,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA208A6-948B-4D5C-9F4E-2AAAFA137CA0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3389E3-583F-4BDC-A826-4B98EAEA3F67}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5594,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5698,46 +6427,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4894</v>
+        <v>5325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4380</v>
+        <v>3854</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>9273</v>
+        <v>9178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,46 +6478,46 @@
         <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>352864</v>
+        <v>378122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>340116</v>
+        <v>299687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
       </c>
       <c r="N5" s="7">
-        <v>692981</v>
+        <v>677810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>47</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +6529,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5815,7 +6544,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5830,7 +6559,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5853,46 +6582,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>16808</v>
+        <v>17137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>19485</v>
+        <v>18169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>36293</v>
+        <v>35305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,46 +6633,46 @@
         <v>269</v>
       </c>
       <c r="D8" s="7">
-        <v>390392</v>
+        <v>385214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
       </c>
       <c r="I8" s="7">
-        <v>466390</v>
+        <v>481523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
       </c>
       <c r="N8" s="7">
-        <v>856782</v>
+        <v>866737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +6684,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5970,7 +6699,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5985,7 +6714,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6008,46 +6737,46 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>21313</v>
+        <v>20592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>25744</v>
+        <v>24459</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>47057</v>
+        <v>45052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,46 +6788,46 @@
         <v>506</v>
       </c>
       <c r="D11" s="7">
-        <v>523042</v>
+        <v>503450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>784</v>
       </c>
       <c r="I11" s="7">
-        <v>546452</v>
+        <v>507422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
       </c>
       <c r="N11" s="7">
-        <v>1069495</v>
+        <v>1010871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6839,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6125,7 +6854,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6140,7 +6869,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6163,46 +6892,46 @@
         <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>50738</v>
+        <v>49094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>49749</v>
+        <v>46290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>100487</v>
+        <v>95384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,46 +6943,46 @@
         <v>594</v>
       </c>
       <c r="D14" s="7">
-        <v>651856</v>
+        <v>813834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>1037</v>
       </c>
       <c r="I14" s="7">
-        <v>684058</v>
+        <v>654302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
       </c>
       <c r="N14" s="7">
-        <v>1335913</v>
+        <v>1468135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6994,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6280,7 +7009,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6295,7 +7024,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6318,46 +7047,46 @@
         <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>67494</v>
+        <v>62990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>55257</v>
+        <v>50949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>122751</v>
+        <v>113939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,46 +7098,46 @@
         <v>561</v>
       </c>
       <c r="D17" s="7">
-        <v>517276</v>
+        <v>483589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
       </c>
       <c r="I17" s="7">
-        <v>527086</v>
+        <v>483577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
       </c>
       <c r="N17" s="7">
-        <v>1044362</v>
+        <v>967166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +7149,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6435,7 +7164,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6450,7 +7179,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6470,49 +7199,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7">
-        <v>176978</v>
+        <v>66793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
+        <v>189</v>
+      </c>
+      <c r="I19" s="7">
+        <v>91482</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M19" s="7">
+        <v>295</v>
+      </c>
+      <c r="N19" s="7">
+        <v>158275</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="I19" s="7">
-        <v>281544</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="M19" s="7">
-        <v>798</v>
-      </c>
-      <c r="N19" s="7">
-        <v>458522</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,49 +7250,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>735</v>
+        <v>450</v>
       </c>
       <c r="D20" s="7">
-        <v>503484</v>
+        <v>292560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
-        <v>1126</v>
+        <v>618</v>
       </c>
       <c r="I20" s="7">
-        <v>716586</v>
+        <v>508427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="M20" s="7">
-        <v>1861</v>
+        <v>1068</v>
       </c>
       <c r="N20" s="7">
-        <v>1220070</v>
+        <v>800987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6587,10 +7316,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6602,10 +7331,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6619,55 +7348,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>338225</v>
+        <v>98685</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
-        <v>772</v>
+        <v>342</v>
       </c>
       <c r="I22" s="7">
-        <v>436160</v>
+        <v>162727</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
-        <v>1206</v>
+        <v>503</v>
       </c>
       <c r="N22" s="7">
-        <v>774384</v>
+        <v>261412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,49 +7405,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2819</v>
+        <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>2938913</v>
+        <v>176836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
-        <v>4445</v>
+        <v>508</v>
       </c>
       <c r="I23" s="7">
-        <v>3280688</v>
+        <v>245960</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
-        <v>7264</v>
+        <v>793</v>
       </c>
       <c r="N23" s="7">
-        <v>6219602</v>
+        <v>422796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,63 +7456,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>434</v>
+      </c>
+      <c r="D25" s="7">
+        <v>320615</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="7">
+        <v>772</v>
+      </c>
+      <c r="I25" s="7">
+        <v>397930</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1206</v>
+      </c>
+      <c r="N25" s="7">
+        <v>718545</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2819</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3033606</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4445</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3180897</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7264</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6214503</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
